--- a/Self-Assessment_v1.0.xlsx
+++ b/Self-Assessment_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5751BE-22AE-491A-8D6D-D342BDA26B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524D1B8-41BF-4B64-80E0-2B8812E91B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1145,20 +1145,20 @@
         <v>202007021</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="18">
         <f>AVERAGE(D12:G12)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1190,19 +1190,19 @@
       </c>
       <c r="D14" s="21">
         <f>AVERAGE(D10:D13)</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="E14" s="21">
         <f>AVERAGE(E10:E13)</f>
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="F14" s="21">
         <f>AVERAGE(F10:F13)</f>
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="G14" s="21">
         <f>AVERAGE(G10:G13)</f>
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -1291,21 +1291,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -1489,31 +1474,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1529,4 +1505,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Self-Assessment_v1.0.xlsx
+++ b/Self-Assessment_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524D1B8-41BF-4B64-80E0-2B8812E91B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84D4DA-286D-4B91-AEFC-AF5F5294F7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,20 +1167,20 @@
         <v>202107756</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="18">
         <f>AVERAGE(D13:G13)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1190,19 +1190,19 @@
       </c>
       <c r="D14" s="21">
         <f>AVERAGE(D10:D13)</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="E14" s="21">
         <f>AVERAGE(E10:E13)</f>
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="F14" s="21">
         <f>AVERAGE(F10:F13)</f>
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="G14" s="21">
         <f>AVERAGE(G10:G13)</f>
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -1291,6 +1291,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -1474,22 +1489,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1505,28 +1529,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>